--- a/Cronogramas/Cronograma.xlsx
+++ b/Cronogramas/Cronograma.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manol\OneDrive\Documentos\IPCA\PA\PA-LojaSocial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manol\OneDrive\Documentos\IPCA\PA\PA-LojaSocial\Cronogramas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2B32852-ED97-492F-A3CE-56C4A6FBB82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FE454A-0F79-4FB4-B2B1-3A9421B05D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="691" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>Team</t>
   </si>
@@ -187,6 +187,27 @@
   </si>
   <si>
     <t>Internal avaluation system</t>
+  </si>
+  <si>
+    <t>Viability Study</t>
+  </si>
+  <si>
+    <t>Sprint #1</t>
+  </si>
+  <si>
+    <t>Architecture Diagram</t>
+  </si>
+  <si>
+    <t>Cunha</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Stakeholders, description and business objectives</t>
+  </si>
+  <si>
+    <t>Azeredo</t>
   </si>
 </sst>
 </file>
@@ -246,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +304,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -370,24 +397,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -401,38 +410,18 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,13 +462,28 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,10 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,38 +513,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,8 +1006,8 @@
   </sheetPr>
   <dimension ref="B1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,220 +1039,185 @@
     <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="24"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="2">
         <v>23502</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="2">
         <v>23519</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="2">
         <v>23510</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="2">
         <v>23513</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="26">
+      <c r="D16" s="29">
         <v>45580</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="26">
+      <c r="D17" s="29">
         <v>45581</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="26">
+      <c r="D18" s="29">
         <v>45585</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
       <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="D30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C14:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1298,11 +1249,11 @@
   <sheetData>
     <row r="1" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
     </row>
@@ -3828,8 +3779,8 @@
   </sheetPr>
   <dimension ref="B1:F102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,36 +3918,60 @@
       <c r="B10" s="12">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="16"/>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
         <v>9</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="16"/>
+      <c r="C11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>11</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="16"/>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="F13" s="17"/>
     </row>
     <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -4602,21 +4577,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C1CFC41B76CA1B47B052361329B9B347" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cd5a6e3897d987615ba2ef9954991f09">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61e782eca0f1fd1a7c9fcd06371c2ede">
     <xsd:element name="properties">
@@ -4730,17 +4690,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5064FD-F019-4205-9EBE-2CA50E5B93CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD43B06-22B5-4E98-99DF-2F188497519A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4754,17 +4730,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BD43B06-22B5-4E98-99DF-2F188497519A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5064FD-F019-4205-9EBE-2CA50E5B93CA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>